--- a/public/planilla_vacia_fouche.xlsx
+++ b/public/planilla_vacia_fouche.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>nombre</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>direccion_sucursal</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -368,40 +371,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
